--- a/data/trans_camb/P23_3_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P23_3_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>1,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,63</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>1,72</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>8,15</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,59</t>
+          <t>9,73</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>6,35</t>
+          <t>0,09</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>-4,14</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-2,11</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>2,77</t>
+          <t>6,29</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,2</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,84</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,34</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,92</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>7,32</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>5,26</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 7,68</t>
+          <t>-6,15; 10,05</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-8,19; 7,48</t>
+          <t>-7,06; 9,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 8,35</t>
+          <t>-6,7; 9,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-7,35; 7,99</t>
+          <t>-2,32; 17,85</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,7; 2,46</t>
+          <t>0,08; 20,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 15,41</t>
+          <t>-7,53; 6,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,12; 5,39</t>
+          <t>-10,91; 2,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-7,33; 2,74</t>
+          <t>-7,09; 7,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 8,99</t>
+          <t>-3,59; 14,62</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-10,69; 10,08</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-4,85; 5,78</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-5,82; 3,95</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-4,57; 7,57</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1,05; 14,71</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 13,02</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-2,59%</t>
+          <t>14,76%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,66%</t>
+          <t>13,7%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-3,64%</t>
+          <t>16,28%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>66,2%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-32,43%</t>
+          <t>90,65%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>57,4%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>-36,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-18,99%</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>24,99%</t>
+          <t>55,53%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>1,17%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>7,68%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-12,29%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>61,96%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>37,88%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,69; 102,21</t>
+          <t>-44,38; 150,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-55,86; 112,84</t>
+          <t>-52,3; 143,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-58,2; 124,27</t>
+          <t>-50,49; 141,98</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-48,29; 120,8</t>
+          <t>-18,41; 227,08</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-68,81; 44,3</t>
+          <t>-4,91; 322,58</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,31; 219,14</t>
+          <t>-50,67; 90,96</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-36,31; 68,56</t>
+          <t>-70,83; 35,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-52,13; 34,15</t>
+          <t>-51,25; 99,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-25,62; 106,04</t>
+          <t>-28,57; 181,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-45,75; 81,86</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-35,8; 70,71</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-44,28; 52,39</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-34,4; 88,82</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 161,91</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>-9,65; 121,16</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-2,03</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,04</t>
+          <t>1,12</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>1,5</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-2,08</t>
+          <t>9,71</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>5,56</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,17</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>-1,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-4,15</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>9,6</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>5,43</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-1,55</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,29</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-3,29</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>9,63</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>5,5</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,82; 9,12</t>
+          <t>-9,7; 11,46</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,88; 10,82</t>
+          <t>-7,59; 9,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-7,96; 11,23</t>
+          <t>-11,11; 5,87</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-9,77; 5,69</t>
+          <t>0,34; 20,91</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,19; 5,46</t>
+          <t>-4,86; 17,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 8,66</t>
+          <t>-9,55; 5,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 4,49</t>
+          <t>-9,28; 5,32</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 5,89</t>
+          <t>-11,51; 3,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 7,2</t>
+          <t>0,4; 17,48</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-3,29; 14,79</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-7,48; 5,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-6,2; 5,67</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-9,81; 2,1</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>3,04; 16,33</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-2,09; 12,61</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-11,97%</t>
+          <t>-7,57%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>-15,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-11,83%</t>
+          <t>67,74%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-11,7%</t>
+          <t>30,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-0,99%</t>
+          <t>-10,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-11,89%</t>
+          <t>-10,85%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-2,42%</t>
+          <t>-23,86%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4,02%</t>
+          <t>72,49%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>31,21%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-9,07%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-1,68%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-19,25%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>69,7%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>30,61%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-49,55; 70,06</t>
+          <t>-48,72; 93,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-38,66; 86,91</t>
+          <t>-37,34; 78,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 79,71</t>
+          <t>-52,95; 43,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-45,13; 41,41</t>
+          <t>-1,36; 187,99</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,57; 40,14</t>
+          <t>-22,22; 144,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 64,12</t>
+          <t>-43,89; 36,54</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,91; 33,73</t>
+          <t>-43,81; 41,27</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-30,45; 40,38</t>
+          <t>-55,51; 26,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-28,78; 49,54</t>
+          <t>0,56; 192,61</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-17,93; 112,89</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-38,11; 40,25</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-30,89; 39,3</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-48,15; 15,22</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>17,84; 146,32</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 86,4</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-6,56</t>
+          <t>-6,08</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-5,95</t>
+          <t>-6,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-5,71</t>
+          <t>-3,47</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-1,86</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-4,6</t>
+          <t>0,01</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>-3,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-4,74</t>
+          <t>-5,14</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,27</t>
+          <t>-5,09</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-2,96</t>
+          <t>-0,21</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-4,63</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-5,61</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-4,28</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>-0,8</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>-2,03</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-18,37; 1,72</t>
+          <t>-15,82; 2,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-17,68; 4,71</t>
+          <t>-16,55; 2,1</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-17,09; 4,17</t>
+          <t>-12,82; 5,08</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,82; 3,34</t>
+          <t>-10,45; 7,09</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-10,86; 1,42</t>
+          <t>-8,54; 9,39</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,39; 6,75</t>
+          <t>-9,77; 3,34</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 0,33</t>
+          <t>-11,44; 1,26</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 0,83</t>
+          <t>-11,58; 1,7</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 2,46</t>
+          <t>-6,47; 6,34</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-11,52; 3,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-9,9; 0,85</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-11,27; -0,22</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-9,85; 1,54</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-6,84; 4,96</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>-7,42; 4,8</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-22,8%</t>
+          <t>-21,39%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-20,66%</t>
+          <t>-21,69%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-19,83%</t>
+          <t>-12,21%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-13,43%</t>
+          <t>-7,47%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-20,86%</t>
+          <t>0,04%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-1,84%</t>
+          <t>-14,47%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-18,69%</t>
+          <t>-22,68%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-20,8%</t>
+          <t>-22,45%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-11,67%</t>
+          <t>-1,2%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>-19,76%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-18,18%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-22,05%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-16,81%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>-3,8%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>-9,06%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1601,77 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-50,15; 8,9</t>
+          <t>-45,48; 10,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-46,98; 22,96</t>
+          <t>-48,99; 9,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-47,06; 17,68</t>
+          <t>-38,62; 21,52</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-35,13; 18,67</t>
+          <t>-36,39; 34,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-42,06; 8,23</t>
+          <t>-31,63; 47,1</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-29,51; 35,27</t>
+          <t>-37,5; 18,74</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-37,83; 1,92</t>
+          <t>-43,08; 6,68</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-38,38; 3,8</t>
+          <t>-44,09; 10,81</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-33,05; 10,82</t>
+          <t>-33,24; 43,26</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>-45,64; 20,72</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-34,82; 3,86</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-38,58; -0,73</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-34,96; 7,46</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>-28,9; 27,44</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>-30,49; 24,28</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,86</t>
+          <t>-2,01</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,58</t>
+          <t>0,03</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,82</t>
+          <t>-1,72</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>4,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-0,04</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>3,39</t>
+          <t>-0,98</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>4,47</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>-3,77</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>-2,23</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>-1,49</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,43</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
           <t>-1,19</t>
-        </is>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>0,19</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,15; 5,28</t>
+          <t>-8,47; 4,67</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 7,96</t>
+          <t>-7,42; 6,87</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 12,01</t>
+          <t>-8,94; 5,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,36; 5,69</t>
+          <t>-2,18; 12,4</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,01; 6,0</t>
+          <t>-8,6; 8,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 10,11</t>
+          <t>-7,4; 6,07</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,67; 2,92</t>
+          <t>-6,27; 6,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-4,73; 4,92</t>
+          <t>-1,7; 12,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 8,93</t>
+          <t>-10,52; 3,98</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-10,12; 5,64</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-6,28; 2,73</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-5,47; 4,15</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-3,66; 6,49</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 5,86</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-7,31; 4,65</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-10,32%</t>
+          <t>-10,96%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>21,21%</t>
+          <t>-9,39%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-2,17%</t>
+          <t>29,33%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-0,19%</t>
+          <t>-1,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>14,64%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-5,77%</t>
+          <t>-0,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,9%</t>
+          <t>18,9%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>16,27%</t>
+          <t>-13,4%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>-8,38%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>-7,05%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-0,67%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>6,51%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>1,93%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>-4,96%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 41,04</t>
+          <t>-38,98; 31,08</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-30,07; 55,82</t>
+          <t>-32,98; 45,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,51; 80,92</t>
+          <t>-40,58; 37,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 28,88</t>
+          <t>-11,62; 92,24</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-24,85; 30,05</t>
+          <t>-33,06; 49,3</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-13,93; 50,25</t>
+          <t>-27,99; 31,31</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-25,11; 15,57</t>
+          <t>-23,69; 30,74</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-20,71; 26,65</t>
+          <t>-6,93; 59,24</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-10,1; 47,33</t>
+          <t>-33,9; 16,35</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-33,27; 25,59</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-26,74; 15,02</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-22,79; 21,7</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-15,28; 35,0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-19,81; 29,24</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-26,98; 21,82</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,53</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-3,01</t>
+          <t>-3,07</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>5,99</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,46</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,0</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,46</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,47</t>
+          <t>-4,76</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-4,05</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>2,47</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>1,97</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,68</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-3,95</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>-0,13</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>3,01</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 7,02</t>
+          <t>-6,5; 7,33</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 3,5</t>
+          <t>-10,4; 3,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 13,86</t>
+          <t>-5,45; 7,96</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 8,46</t>
+          <t>1,5; 16,93</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 2,01</t>
+          <t>-4,16; 13,62</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 5,82</t>
+          <t>-6,96; 9,25</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 5,6</t>
+          <t>-12,0; 2,7</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-8,92; 0,93</t>
+          <t>-9,33; 6,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 7,97</t>
+          <t>-5,74; 10,72</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-6,45; 9,67</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-4,49; 6,26</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-8,81; 0,96</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-5,33; 5,68</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-0,34; 10,93</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 8,67</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>3,77%</t>
+          <t>3,5%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-20,17%</t>
+          <t>-20,31%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>40,19%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2,22%</t>
+          <t>51,74%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-24,11%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>-23,4%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-22,62%</t>
+          <t>-7,61%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>11,84%</t>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>10,23%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-22,18%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>-0,72%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>30,47%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>15,03%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +2273,77 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-34,41; 64,64</t>
+          <t>-34,32; 64,56</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-48,87; 33,1</t>
+          <t>-51,35; 29,67</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-10,35; 119,79</t>
+          <t>-29,93; 68,11</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-30,95; 51,39</t>
+          <t>6,05; 123,24</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-50,52; 14,49</t>
+          <t>-16,34; 81,59</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,35; 37,13</t>
+          <t>-28,38; 56,73</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-24,23; 37,01</t>
+          <t>-48,14; 19,33</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 5,33</t>
+          <t>-38,56; 41,53</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 51,54</t>
+          <t>-24,49; 79,65</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-26,73; 64,28</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-21,33; 41,01</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-41,9; 6,24</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-25,97; 39,49</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-2,22; 71,74</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-12,47; 49,44</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>1,85</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6,37</t>
+          <t>11,63</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,21</t>
+          <t>-3,27</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-4,03</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-0,13</t>
+          <t>-2,36</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-0,9</t>
+          <t>-5,44</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,59</t>
+          <t>2,83</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
+          <t>6,56</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>11,04</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-1,4</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-2,31</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>6,57</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
           <t>2,54</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>7,29</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,63; 5,51</t>
+          <t>-5,79; 5,92</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 8,33</t>
+          <t>-3,43; 7,67</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-1,33; 13,99</t>
+          <t>3,06; 21,33</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 5,02</t>
+          <t>-14,17; 6,54</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-10,69; 1,99</t>
+          <t>-6,68; 11,32</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 8,18</t>
+          <t>-10,51; 4,18</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-5,83; 3,46</t>
+          <t>-12,72; 0,95</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 2,41</t>
+          <t>-6,04; 11,41</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 8,13</t>
+          <t>-3,18; 16,61</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2,47; 21,23</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-6,76; 3,1</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-7,29; 2,03</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0,5; 13,16</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-5,25; 9,34</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 13,85</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-6,44%</t>
+          <t>-2,41%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>24,93%</t>
+          <t>28,95%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>86,03%</t>
+          <t>164,59%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-9,55%</t>
+          <t>-17,46%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-31,75%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-1,03%</t>
+          <t>-16,62%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-8,57%</t>
+          <t>-38,29%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-15,17%</t>
+          <t>19,92%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>24,18%</t>
+          <t>38,51%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>87,93%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-12,48%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-20,54%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>58,57%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>14,27%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>55,82%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-61,35; 129,86</t>
+          <t>-59,4; 131,9</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-45,05; 191,51</t>
+          <t>-39,66; 175,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-18,95; 277,08</t>
+          <t>22,66; 474,07</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-44,86; 58,26</t>
+          <t>-55,71; 50,55</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-62,06; 24,32</t>
+          <t>-40,53; 114,49</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-49,73; 85,9</t>
+          <t>-52,19; 40,63</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-42,99; 43,97</t>
+          <t>-66,86; 10,83</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-48,17; 29,11</t>
+          <t>-32,14; 105,15</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-22,64; 99,38</t>
+          <t>-18,49; 130,31</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>8,27; 265,46</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-48,74; 33,88</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-51,28; 24,24</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 148,19</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-23,6; 62,91</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2,76; 144,8</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-2,13</t>
+          <t>-1,53</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>-1,03</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,7</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-1,2</t>
+          <t>4,16</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,84</t>
+          <t>-1,55</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-1,65</t>
+          <t>-3,78</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,35</t>
+          <t>-0,54</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,17</t>
+          <t>3,17</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2,22</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-1,53</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-2,44</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,06</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>3,66</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>2,66</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,16</t>
+          <t>-4,5; 2,05</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-5,22; 1,89</t>
+          <t>-4,24; 2,61</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-2,09; 5,21</t>
+          <t>-2,78; 4,01</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-4,43; 1,49</t>
+          <t>0,63; 7,85</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-6,12; -0,73</t>
+          <t>-0,6; 7,13</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,24</t>
+          <t>-4,36; 1,35</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-3,78; 0,82</t>
+          <t>-6,63; -1,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-4,57; -0,03</t>
+          <t>-4,0; 2,45</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 3,46</t>
+          <t>-0,42; 6,58</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 5,6</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-3,85; 0,75</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; -0,31</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-2,31; 2,27</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>0,71; 6,04</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 5,34</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-12,41%</t>
+          <t>-9,02%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-7,6%</t>
+          <t>-6,08%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>8,92%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-6,59%</t>
+          <t>23,63%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-18,24%</t>
+          <t>16,62%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>4,57%</t>
+          <t>-8,28%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-9,3%</t>
+          <t>-20,19%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-13,24%</t>
+          <t>-2,88%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6,58%</t>
+          <t>17,46%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>11,64%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-8,59%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-13,67%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>0,32%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>20,45%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>14,08%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 7,87</t>
+          <t>-24,79; 13,45</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-26,76; 12,81</t>
+          <t>-23,21; 17,0</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-11,35; 34,15</t>
+          <t>-14,79; 27,04</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-22,0; 8,63</t>
+          <t>3,22; 47,86</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-30,79; -4,3</t>
+          <t>-3,16; 40,89</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-12,29; 24,57</t>
+          <t>-21,13; 8,45</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 4,86</t>
+          <t>-31,83; -5,2</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-23,99; -0,16</t>
+          <t>-20,18; 13,41</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-9,0; 20,44</t>
+          <t>-2,34; 39,78</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-6,3; 31,68</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-20,26; 4,43</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-24,0; -1,9</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-12,29; 13,42</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>3,92; 36,19</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>0,05; 30,32</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
